--- a/Documentos/Relatorio_Executivo_Analise_de_Dados.xlsx
+++ b/Documentos/Relatorio_Executivo_Analise_de_Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73263D0B-6359-47CC-991B-2482A8547580}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB8162-099A-447D-99D8-E58B307EEFF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,6 +350,121 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Com base nos dados  analisados, recomenda-se:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t>1. Priorizar a consistência do treino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">
+Treinar entre 3 e 5 vezes por semana é o fator mais associado à redução de gordura.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t>2. Desenvolver treinos ajustados ao nível de experiência:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">
+Iniciantes: aumentar a frequência gradualmente de 1 a 2x, para 3x semanais.
+Intermediários: consolidar 3-4x semanais para ampliar resultados.
+Avançados: focar em 4-5x semanais para continuar progredindo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">3. Focar em dietas que promovam aderência: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">Como as  diferenças entre as dietas é pequena, sugere-se priorizar:
+     Hábitos consistentes,
+     Preferências pessoais,
+     Restrições e comorbidades.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">4. Integrar treinos de força e cardio:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">A combinação apresentou melhores resultados do que  uma única modalidade.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">5. Apoio especial para IMC elevado:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">Indivíduos com sobrepeso/obesidade devem receber:
+    Acompanhamento mais próximo,
+    Plano alimentar personalizado,
+    Progressão gradual de treinos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">6. Campanhas educativas sobre constância:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t>Reforçar a ideia de que resultados vêm do hábito, da constância ao longo do tempo, e não de estratégias isoladas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">A análise dos dados revelou padrões consistentes sobre os fatores que impactam a redução de gordura corporal.
 </t>
     </r>
@@ -448,7 +563,7 @@
         <sz val="11"/>
         <rFont val="Atala"/>
       </rPr>
-      <t xml:space="preserve">Participantes avançados que treinam de 3 a 5 na semana (25,62%) apresentam menor percentual de gordura e IMC, independente do gênero ou nível de experiência, indicando que consistência e regularidade nos treinos supera a dieta ou modalidade de treino.
+      <t xml:space="preserve">Participantes avançados que treinam de 3 a 5 vezes na semana (25,62%) apresentam menor percentual de gordura e IMC, independente do gênero ou nível de experiência, indicando que consistência e regularidade nos treinos supera a dieta ou modalidade de treino.
 </t>
     </r>
     <r>
@@ -468,6 +583,7 @@
       <t>O gráfico que relaciona a Classificação do IMC com percentual de gordura mostra que:
      Pessoas em sobrepeso/obesidade tem maior gordura corporal.
      Quanto maior o IMC, maior o percentual de gordura.
+     Participantes Avançados chegam a Obesidade Grau I, demais níveis vão até o Grau III
 Essa relação também é mostrada no gráfico de correlação, que mostra uma forte correlação positiva.
 Em conjunto, os insights revelam que a redução de gordura corporal está mais relacionada à consistência, frequência e experiência, do que ao método isolado (tipo de dieta ou modalidade de treino).</t>
     </r>
@@ -475,125 +591,10 @@
   <si>
     <t>A análise dos 20.000 participantes revela que os fatores mais decisivos para redução de gordura corporal estão relacionados ao comportamento, e não exclusivamente ao tipo de dieta ou modalidade de treino. A média geral de gordura permanece em torno de 26%, variando pouco quando analisada isoladamente por dieta ou treino.
 As dietas Vegetarianas e Paleolíticas apresentam leve vantagem, mas a diferença é pequena e a dieta Vegana apresenta valor levemente mais alto, mas também com pequena diferença. 
-O mesmo ocorre com modalidades de treino, em que os treinos de Força (mulheres) e Cardio (homens) apresentam melhores desempenhos, porém todos os tipos analisados permanecem próximos da média geral.
-O fator mais relevante é a frequência semanal de treino, especialmente entre 3 e 5 vezes por semana, que se mostrou consistente em todos os grupos. Participantes avançados apresentam melhores resultados, reforçando o impacto da constância ao longo do tempo.
-A relação entre IMC e Gordura Corporal mostra forte correlação, indicano que aumentos de IMC acompanham aumentos de gordura, especialmente nas faixas de sobrepeso e obesidade (classificação do IMC).
+O mesmo ocorre com modalidades de treino, em que os treinos de Força (mulheres) e Cardio (homens) apresentam melhores desempenhos, porém todos os tipos analisados permanecem próximos da média geral. Com isso, combinar os treinos de cardio e força é mais relevante que escolher uma única modalidade.
+O fator mais relevante é a frequência semanal de treino, especialmente entre 3 e 5 vezes por semana, que se mostrou consistente em todos os grupos. Participantes avançados apresentam melhores resultados, reforçando o impacto da constância ao longo do tempo. 
+A relação entre IMC e Gordura Corporal mostra forte correlação, indicano que aumentos de IMC acompanham aumentos de gordura, especialmente nas faixas de sobrepeso e obesidade (classificação do IMC). E o participantes com frequência de treino avançada (3 a 5x) não ultrapassam o Grau de Obesidade I, como os demais níveis de experiência.
 Em resumo: consistência, progressão e regularidade são os principais fatores que explicam melhores resultados.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Com base nos dados  analisados, recomenda-se:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t>1. Priorizar a consistência do treino:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">
-Treinar entre 3 e 5 vezes por semana é o fator mais associado à redução de gordura.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t>2. Desenvolver treinos ajustados ao nível de experiência:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">
-Iniciantes: aumentar a frequência gradualmente de 1 a 2x, para 3x semanais.
-Intermediários: consolidar 3-4x semanais para ampliar resultados.
-Avançados: focar em 4-5x semanais para continuar progredindo.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">3. Focar em dietas que promovam aderência: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">Como as  diferenças entre as dietas é pequena, sugere-se priorizar:
-     Hábitos consistentes,
-     Preferências pessoais,
-     Restrições e comorbidades.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">4. Integrar treinos de força e cardio:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">A combinação apresentou melhores resultados do que  uma única modalidade.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">5. Apoio especial para IMC elevado:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">Indivíduos com sobrepeso/obesidade devem receber:
-    Acompanhamento mais próximo,
-    Plano alimentar personalizado,
-    Progressão gradual de treinos.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">6. Campanhas educativas sobre constância:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t>Reforçar a ideia de que resultados vêm do hábito, da constância ao longo do tempo, e não de estratégias isoladas.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -682,10 +683,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,6 +697,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,7 +1459,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>610213</xdr:rowOff>
+      <xdr:rowOff>610212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4261,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4272,12 +4273,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
@@ -4286,12 +4287,12 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -4314,352 +4315,352 @@
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="137.25" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="151.5" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="126.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="343.5" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="225.75" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="327.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="126.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="343.5" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="225.75" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="327.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="230.25" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="248.25" customHeight="1">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="283.5" customHeight="1">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="256.5" customHeight="1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="210" customHeight="1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="171.75" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="290.25" customHeight="1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" ht="252.75" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="275.25" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="219" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" ht="251.25" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" ht="409.6" customHeight="1">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" ht="60" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" ht="174" customHeight="1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" ht="251.25" customHeight="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="362.25" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" ht="392.25" customHeight="1">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="392.25" customHeight="1">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" ht="360" customHeight="1">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="50.1" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="132" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="3"/>
@@ -4693,6 +4694,25 @@
     <sortCondition ref="A55"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D53"/>
     <mergeCell ref="A20:D22"/>
@@ -4709,25 +4729,6 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Relatorio_Executivo_Analise_de_Dados.xlsx
+++ b/Documentos/Relatorio_Executivo_Analise_de_Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB8162-099A-447D-99D8-E58B307EEFF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42D29C-E622-470B-BEB8-98864774C5B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,34 +53,6 @@
   </si>
   <si>
     <t>FATORES DE SUCESSO PARA REDUÇÃO DE GORDURA CORPORAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">Squad Nina da Hora
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Atala"/>
-      </rPr>
-      <t xml:space="preserve">
-Integrantes:
-Bruna de Avila Pospiesz
-Francielle Cristina da Costa Silva
-Gisela Keidel
-Ingrid Costa Ferreira
-Luana Jaime Tocchio
-Tatiana Varona Villavicencio
-Vanelle Rabelo do Nascimento
-Vanessa Simão da Costa
-25/11/2025</t>
-    </r>
   </si>
   <si>
     <t>Arredodamento dos valores para 1 casa decimal, transformação das colunas para número inteiro, substituição dos códigos de experiência por categorias e salvamento da camada Silver:</t>
@@ -595,6 +567,35 @@
 O fator mais relevante é a frequência semanal de treino, especialmente entre 3 e 5 vezes por semana, que se mostrou consistente em todos os grupos. Participantes avançados apresentam melhores resultados, reforçando o impacto da constância ao longo do tempo. 
 A relação entre IMC e Gordura Corporal mostra forte correlação, indicano que aumentos de IMC acompanham aumentos de gordura, especialmente nas faixas de sobrepeso e obesidade (classificação do IMC). E o participantes com frequência de treino avançada (3 a 5x) não ultrapassam o Grau de Obesidade I, como os demais níveis de experiência.
 Em resumo: consistência, progressão e regularidade são os principais fatores que explicam melhores resultados.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">Squad Nina da Hora
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Atala"/>
+      </rPr>
+      <t xml:space="preserve">
+Integrantes:
+Bruna de Avila Pospiesz
+Francielle Cristina da Costa Silva
+Gisela Keidel
+Ingrid Costa Ferreira
+Luana Jaime Tocchio
+Pamella Azevedo Costa de Oliveira
+Tatiana Varona Villavicencio
+Vanelle Rabelo do Nascimento
+Vanessa Simão da Costa
+25/11/2025</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -682,18 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -701,11 +690,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4262,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4273,12 +4274,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
@@ -4287,380 +4288,380 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="94.5" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="137.25" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="74.25" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="151.5" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="126.75" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="343.5" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="225.75" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="327.75" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="47.25" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="230.25" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="137.25" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="248.25" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="283.5" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="151.5" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="256.5" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="126.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="343.5" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>5</v>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="210" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="225.75" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="171.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="290.25" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="252.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="275.25" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" ht="219" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" ht="251.25" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="409.6" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="60" customHeight="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="174" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" ht="251.25" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" ht="362.25" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="392.25" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" ht="392.25" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="360" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" ht="50.1" customHeight="1">
+      <c r="A51" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="327.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="230.25" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="248.25" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" ht="283.5" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" ht="256.5" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" ht="210" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" ht="171.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" ht="290.25" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="252.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" ht="275.25" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" ht="219" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" ht="251.25" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" ht="409.6" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" ht="174" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" ht="251.25" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" ht="362.25" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4" ht="392.25" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" ht="392.25" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" ht="360" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" ht="50.1" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" ht="132" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" ht="149.25" customHeight="1">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="3"/>
@@ -4694,25 +4695,6 @@
     <sortCondition ref="A55"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D53"/>
     <mergeCell ref="A20:D22"/>
@@ -4729,6 +4711,25 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
